--- a/Data Files/WRMA-107.xlsx
+++ b/Data Files/WRMA-107.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gv.vignesh/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95087EB-364D-514F-ABFC-A87AD7AF538C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7706403E-75BB-5E44-927B-CF9CE1ABAC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="760" windowWidth="28040" windowHeight="16820" xr2:uid="{DB3ECC0E-7D54-CF41-895E-10964B8D610C}"/>
   </bookViews>
@@ -429,9 +429,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
